--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>108.147655661525</v>
+        <v>2.096169666666666</v>
       </c>
       <c r="H2">
-        <v>108.147655661525</v>
+        <v>6.288508999999999</v>
       </c>
       <c r="I2">
-        <v>0.9322657301830436</v>
+        <v>0.01755614486036394</v>
       </c>
       <c r="J2">
-        <v>0.9322657301830436</v>
+        <v>0.01755614486036394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.1561297729452</v>
+        <v>0.1325553333333333</v>
       </c>
       <c r="N2">
-        <v>17.1561297729452</v>
+        <v>0.397666</v>
       </c>
       <c r="O2">
-        <v>0.7202172683603575</v>
+        <v>0.00533964316398423</v>
       </c>
       <c r="P2">
-        <v>0.7202172683603575</v>
+        <v>0.00533964316398423</v>
       </c>
       <c r="Q2">
-        <v>1855.395215168914</v>
+        <v>0.2778584688882222</v>
       </c>
       <c r="R2">
-        <v>1855.395215168914</v>
+        <v>2.500726219994</v>
       </c>
       <c r="S2">
-        <v>0.6714338775784058</v>
+        <v>9.374354888955917E-05</v>
       </c>
       <c r="T2">
-        <v>0.6714338775784058</v>
+        <v>9.374354888955917E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>108.147655661525</v>
+        <v>2.096169666666666</v>
       </c>
       <c r="H3">
-        <v>108.147655661525</v>
+        <v>6.288508999999999</v>
       </c>
       <c r="I3">
-        <v>0.9322657301830436</v>
+        <v>0.01755614486036394</v>
       </c>
       <c r="J3">
-        <v>0.9322657301830436</v>
+        <v>0.01755614486036394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.66464005114239</v>
+        <v>17.178266</v>
       </c>
       <c r="N3">
-        <v>6.66464005114239</v>
+        <v>51.534798</v>
       </c>
       <c r="O3">
-        <v>0.2797827316396424</v>
+        <v>0.6919812904497951</v>
       </c>
       <c r="P3">
-        <v>0.2797827316396424</v>
+        <v>0.691981290449795</v>
       </c>
       <c r="Q3">
-        <v>720.7651973589556</v>
+        <v>36.00856011513133</v>
       </c>
       <c r="R3">
-        <v>720.7651973589556</v>
+        <v>324.077041036182</v>
       </c>
       <c r="S3">
-        <v>0.2608318526046378</v>
+        <v>0.01214852377579818</v>
       </c>
       <c r="T3">
-        <v>0.2608318526046378</v>
+        <v>0.01214852377579817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.85752629479447</v>
+        <v>2.096169666666666</v>
       </c>
       <c r="H4">
-        <v>7.85752629479447</v>
+        <v>6.288508999999999</v>
       </c>
       <c r="I4">
-        <v>0.06773426981695645</v>
+        <v>0.01755614486036394</v>
       </c>
       <c r="J4">
-        <v>0.06773426981695645</v>
+        <v>0.01755614486036394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.1561297729452</v>
+        <v>7.513933666666667</v>
       </c>
       <c r="N4">
-        <v>17.1561297729452</v>
+        <v>22.541801</v>
       </c>
       <c r="O4">
-        <v>0.7202172683603575</v>
+        <v>0.3026790663862208</v>
       </c>
       <c r="P4">
-        <v>0.7202172683603575</v>
+        <v>0.3026790663862208</v>
       </c>
       <c r="Q4">
-        <v>134.8047408078232</v>
+        <v>15.75047982941211</v>
       </c>
       <c r="R4">
-        <v>134.8047408078232</v>
+        <v>141.754318464709</v>
       </c>
       <c r="S4">
-        <v>0.04878339078195178</v>
+        <v>0.005313877535676205</v>
       </c>
       <c r="T4">
-        <v>0.04878339078195178</v>
+        <v>0.005313877535676205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>108.7065656666667</v>
+      </c>
+      <c r="H5">
+        <v>326.119697</v>
+      </c>
+      <c r="I5">
+        <v>0.9104550287436967</v>
+      </c>
+      <c r="J5">
+        <v>0.9104550287436968</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1325553333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.397666</v>
+      </c>
+      <c r="O5">
+        <v>0.00533964316398423</v>
+      </c>
+      <c r="P5">
+        <v>0.00533964316398423</v>
+      </c>
+      <c r="Q5">
+        <v>14.40963504746689</v>
+      </c>
+      <c r="R5">
+        <v>129.686715427202</v>
+      </c>
+      <c r="S5">
+        <v>0.004861504970346345</v>
+      </c>
+      <c r="T5">
+        <v>0.004861504970346346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>108.7065656666667</v>
+      </c>
+      <c r="H6">
+        <v>326.119697</v>
+      </c>
+      <c r="I6">
+        <v>0.9104550287436967</v>
+      </c>
+      <c r="J6">
+        <v>0.9104550287436968</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>17.178266</v>
+      </c>
+      <c r="N6">
+        <v>51.534798</v>
+      </c>
+      <c r="O6">
+        <v>0.6919812904497951</v>
+      </c>
+      <c r="P6">
+        <v>0.691981290449795</v>
+      </c>
+      <c r="Q6">
+        <v>1867.390300968467</v>
+      </c>
+      <c r="R6">
+        <v>16806.5127087162</v>
+      </c>
+      <c r="S6">
+        <v>0.6300178456865685</v>
+      </c>
+      <c r="T6">
+        <v>0.6300178456865685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>108.7065656666667</v>
+      </c>
+      <c r="H7">
+        <v>326.119697</v>
+      </c>
+      <c r="I7">
+        <v>0.9104550287436967</v>
+      </c>
+      <c r="J7">
+        <v>0.9104550287436968</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.513933666666667</v>
+      </c>
+      <c r="N7">
+        <v>22.541801</v>
+      </c>
+      <c r="O7">
+        <v>0.3026790663862208</v>
+      </c>
+      <c r="P7">
+        <v>0.3026790663862208</v>
+      </c>
+      <c r="Q7">
+        <v>816.8139235504774</v>
+      </c>
+      <c r="R7">
+        <v>7351.325311954296</v>
+      </c>
+      <c r="S7">
+        <v>0.2755756780867819</v>
+      </c>
+      <c r="T7">
+        <v>0.275575678086782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.595326333333334</v>
+      </c>
+      <c r="H8">
+        <v>25.785979</v>
+      </c>
+      <c r="I8">
+        <v>0.07198882639593941</v>
+      </c>
+      <c r="J8">
+        <v>0.07198882639593941</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1325553333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.397666</v>
+      </c>
+      <c r="O8">
+        <v>0.00533964316398423</v>
+      </c>
+      <c r="P8">
+        <v>0.00533964316398423</v>
+      </c>
+      <c r="Q8">
+        <v>1.139356347223778</v>
+      </c>
+      <c r="R8">
+        <v>10.254207125014</v>
+      </c>
+      <c r="S8">
+        <v>0.0003843946447483253</v>
+      </c>
+      <c r="T8">
+        <v>0.0003843946447483253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7.85752629479447</v>
-      </c>
-      <c r="H5">
-        <v>7.85752629479447</v>
-      </c>
-      <c r="I5">
-        <v>0.06773426981695645</v>
-      </c>
-      <c r="J5">
-        <v>0.06773426981695645</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.66464005114239</v>
-      </c>
-      <c r="N5">
-        <v>6.66464005114239</v>
-      </c>
-      <c r="O5">
-        <v>0.2797827316396424</v>
-      </c>
-      <c r="P5">
-        <v>0.2797827316396424</v>
-      </c>
-      <c r="Q5">
-        <v>52.36758444719169</v>
-      </c>
-      <c r="R5">
-        <v>52.36758444719169</v>
-      </c>
-      <c r="S5">
-        <v>0.01895087903500466</v>
-      </c>
-      <c r="T5">
-        <v>0.01895087903500466</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.595326333333334</v>
+      </c>
+      <c r="H9">
+        <v>25.785979</v>
+      </c>
+      <c r="I9">
+        <v>0.07198882639593941</v>
+      </c>
+      <c r="J9">
+        <v>0.07198882639593941</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.178266</v>
+      </c>
+      <c r="N9">
+        <v>51.534798</v>
+      </c>
+      <c r="O9">
+        <v>0.6919812904497951</v>
+      </c>
+      <c r="P9">
+        <v>0.691981290449795</v>
+      </c>
+      <c r="Q9">
+        <v>147.6528021108047</v>
+      </c>
+      <c r="R9">
+        <v>1328.875218997242</v>
+      </c>
+      <c r="S9">
+        <v>0.04981492098742842</v>
+      </c>
+      <c r="T9">
+        <v>0.04981492098742842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.595326333333334</v>
+      </c>
+      <c r="H10">
+        <v>25.785979</v>
+      </c>
+      <c r="I10">
+        <v>0.07198882639593941</v>
+      </c>
+      <c r="J10">
+        <v>0.07198882639593941</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.513933666666667</v>
+      </c>
+      <c r="N10">
+        <v>22.541801</v>
+      </c>
+      <c r="O10">
+        <v>0.3026790663862208</v>
+      </c>
+      <c r="P10">
+        <v>0.3026790663862208</v>
+      </c>
+      <c r="Q10">
+        <v>64.5847119120199</v>
+      </c>
+      <c r="R10">
+        <v>581.262407208179</v>
+      </c>
+      <c r="S10">
+        <v>0.02178951076376267</v>
+      </c>
+      <c r="T10">
+        <v>0.02178951076376267</v>
       </c>
     </row>
   </sheetData>
